--- a/src/main/java/com/testData/TestCases.xlsx
+++ b/src/main/java/com/testData/TestCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37152B-E0E3-4BCA-A1F0-093A1342E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135FF2D-D606-485C-9BF0-DB9333539020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect list" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Module Name</t>
   </si>
@@ -34,78 +34,12 @@
     <t>TestcaseName</t>
   </si>
   <si>
-    <t>JiraTestcase</t>
-  </si>
-  <si>
-    <t>TestcaseForExcelData</t>
-  </si>
-  <si>
-    <t>Module1</t>
-  </si>
-  <si>
-    <t>Module2</t>
-  </si>
-  <si>
-    <t>Landing page heading is not as per requirements.</t>
-  </si>
-  <si>
-    <t>Login page validation messages are not correct</t>
-  </si>
-  <si>
-    <t>1. Go to application login page
-2. Enter incorrect username and password
-3. Click on login button
-4. Check validation message</t>
-  </si>
-  <si>
     <t>EOF</t>
   </si>
   <si>
-    <t>loginToAmazon</t>
-  </si>
-  <si>
-    <t>Search product on Amazon</t>
-  </si>
-  <si>
-    <t>searchProductOnAmazon</t>
-  </si>
-  <si>
-    <t>AmazonPage</t>
-  </si>
-  <si>
-    <t>1)Login in to application
-2)Check landing page heading</t>
-  </si>
-  <si>
-    <t>addProductToCart</t>
-  </si>
-  <si>
-    <t>Add Product to Cart</t>
-  </si>
-  <si>
-    <t>Login to Amazon</t>
-  </si>
-  <si>
     <t>Launching browser</t>
   </si>
   <si>
-    <t>1)Navigate to SignIn Page
-2)Enter Username and continue
-3)Enter Password and verify SignIn button
-4)Click SignIn and verify landing on Home page</t>
-  </si>
-  <si>
-    <t>1.Navigate to Baby section
-2.Enter product Name on the search bar
-3.Press enter on search bar and check result page is visible</t>
-  </si>
-  <si>
-    <t>1)Select product after navigating to product page
-2)Select quantity and add to cart
-3)Verify product is added to cart
-4)Verify shopping cart is updated</t>
-  </si>
-  <si>
     <t>PreCondition</t>
   </si>
   <si>
@@ -116,6 +50,21 @@
   </si>
   <si>
     <t>User should be navigated to product page</t>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>Sign up to Net A Porter</t>
+  </si>
+  <si>
+    <t>1)Hit the URL
+2)Validate the Application Language is Changing after Selecting different language other than English and Revert back to English
+3)Click on Account Icon -&gt; Create Account and Enter Information for Signup
+4)Verify Field Validations for Date of birth Field with Future Date of birth [Date 2 days from Today]
+5)Click Create Account Button with Valid information
+6)Click close in Image Selection Popup
+7)Verify Create Account is Reloaded with Entered information and Error Message To Perform Next Action for signup</t>
   </si>
 </sst>
 </file>
@@ -460,16 +409,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.54296875" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,109 +432,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/TestCases.xlsx
+++ b/src/main/java/com/testData/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135FF2D-D606-485C-9BF0-DB9333539020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FD5CD-EAE4-476C-B36F-18DDEF45FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Module Name</t>
   </si>
@@ -58,13 +58,21 @@
     <t>Sign up to Net A Porter</t>
   </si>
   <si>
+    <t>LanguageChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language Change </t>
+  </si>
+  <si>
     <t>1)Hit the URL
-2)Validate the Application Language is Changing after Selecting different language other than English and Revert back to English
-3)Click on Account Icon -&gt; Create Account and Enter Information for Signup
-4)Verify Field Validations for Date of birth Field with Future Date of birth [Date 2 days from Today]
-5)Click Create Account Button with Valid information
-6)Click close in Image Selection Popup
-7)Verify Create Account is Reloaded with Entered information and Error Message To Perform Next Action for signup</t>
+2)Validate the Application Language is Changing after Selecting different language other than English and Revert back to English</t>
+  </si>
+  <si>
+    <t>1)Click on Account Icon -&gt; Create Account and Enter Information for Signup
+2)Verify Field Validations for Date of birth Field with Future Date of birth [Date 2 days from Today]
+3)Click Create Account Button with Valid information
+4)Click close in Image Selection Popup
+5)Verify Create Account is Reloaded with Entered information and Error Message To Perform Next Action for signup</t>
   </si>
 </sst>
 </file>
@@ -403,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A98942-7FE4-49AD-84B2-87D3542DBE3B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="39.7265625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="25.54296875" style="2" hidden="1" customWidth="1"/>
@@ -435,7 +443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -446,39 +454,47 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -488,7 +504,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/java/com/testData/TestCases.xlsx
+++ b/src/main/java/com/testData/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274FD5CD-EAE4-476C-B36F-18DDEF45FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593751D9-1004-4930-B5DE-C3B059B9DEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Module Name</t>
   </si>
@@ -56,16 +56,6 @@
   </si>
   <si>
     <t>Sign up to Net A Porter</t>
-  </si>
-  <si>
-    <t>LanguageChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language Change </t>
-  </si>
-  <si>
-    <t>1)Hit the URL
-2)Validate the Application Language is Changing after Selecting different language other than English and Revert back to English</t>
   </si>
   <si>
     <t>1)Click on Account Icon -&gt; Create Account and Enter Information for Signup
@@ -74,12 +64,25 @@
 4)Click close in Image Selection Popup
 5)Verify Create Account is Reloaded with Entered information and Error Message To Perform Next Action for signup</t>
   </si>
+  <si>
+    <t>LanguageChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language Change </t>
+  </si>
+  <si>
+    <t>1)Hit the URL
+2)Validate the Application Language is Changing after Selecting different language other than English and Revert back to English</t>
+  </si>
+  <si>
+    <t>SignUp2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,13 +132,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,7 +428,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,7 +459,7 @@
     </row>
     <row r="2" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -454,24 +468,24 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">

--- a/src/main/java/com/testData/TestCases.xlsx
+++ b/src/main/java/com/testData/TestCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37152B-E0E3-4BCA-A1F0-093A1342E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE15B16-4D87-4C12-A192-7544CDA94B65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11000" windowHeight="5650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect list" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Module Name</t>
   </si>
@@ -34,95 +34,56 @@
     <t>TestcaseName</t>
   </si>
   <si>
-    <t>JiraTestcase</t>
-  </si>
-  <si>
-    <t>TestcaseForExcelData</t>
-  </si>
-  <si>
-    <t>Module1</t>
-  </si>
-  <si>
-    <t>Module2</t>
-  </si>
-  <si>
-    <t>Landing page heading is not as per requirements.</t>
-  </si>
-  <si>
-    <t>Login page validation messages are not correct</t>
-  </si>
-  <si>
-    <t>1. Go to application login page
-2. Enter incorrect username and password
-3. Click on login button
-4. Check validation message</t>
-  </si>
-  <si>
     <t>EOF</t>
   </si>
   <si>
-    <t>loginToAmazon</t>
-  </si>
-  <si>
-    <t>Search product on Amazon</t>
-  </si>
-  <si>
-    <t>searchProductOnAmazon</t>
-  </si>
-  <si>
-    <t>AmazonPage</t>
-  </si>
-  <si>
-    <t>1)Login in to application
-2)Check landing page heading</t>
-  </si>
-  <si>
-    <t>addProductToCart</t>
-  </si>
-  <si>
-    <t>Add Product to Cart</t>
-  </si>
-  <si>
-    <t>Login to Amazon</t>
-  </si>
-  <si>
-    <t>Launching browser</t>
-  </si>
-  <si>
-    <t>1)Navigate to SignIn Page
-2)Enter Username and continue
-3)Enter Password and verify SignIn button
-4)Click SignIn and verify landing on Home page</t>
-  </si>
-  <si>
-    <t>1.Navigate to Baby section
-2.Enter product Name on the search bar
-3.Press enter on search bar and check result page is visible</t>
-  </si>
-  <si>
-    <t>1)Select product after navigating to product page
-2)Select quantity and add to cart
-3)Verify product is added to cart
-4)Verify shopping cart is updated</t>
-  </si>
-  <si>
     <t>PreCondition</t>
   </si>
   <si>
     <t>SignIn button should be located</t>
   </si>
   <si>
-    <t>User should be logged in to application</t>
-  </si>
-  <si>
-    <t>User should be navigated to product page</t>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>1. Hit the URL
+2. Validate the Application Language is Changing after Selecting different language other than English and Revert back to English
+3. Click on Account Icon -&gt; Create Account and Enter Information for Signup
+4. Verify Field Validations for Date of birth Field with Future Date of birth [Date 2 days from Today]
+5. Click Create Account Button with Valid information
+6. Click close in Image Selection Popup
+7. Verify Create Account is Reloaded with Entered information and Error Message To Perform Next Action for signup</t>
+  </si>
+  <si>
+    <t>LanguageChangeToChina</t>
+  </si>
+  <si>
+    <t>1. Hit the URL
+2. Hover on the 1st level Category [ Shop All]
+3. Verify all the displayed links when hovered on Category are properly getting navigate to its respective screen
+4. Verify all the links displayed under "Help" Column in Footer Section of the Page are properly getting navigate to its respective screen</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Redirecting to Links</t>
+  </si>
+  <si>
+    <t>RedirectLinks</t>
+  </si>
+  <si>
+    <t>Application is open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +105,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +146,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,22 +436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A98942-7FE4-49AD-84B2-87D3542DBE3B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,109 +465,58 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/TestCases.xlsx
+++ b/src/main/java/com/testData/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593751D9-1004-4930-B5DE-C3B059B9DEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D2FDF-4F79-4B31-B906-D0FC6C8276C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Module Name</t>
   </si>
@@ -76,6 +76,17 @@
   </si>
   <si>
     <t>SignUp2</t>
+  </si>
+  <si>
+    <t>ShopAllLinksTest</t>
+  </si>
+  <si>
+    <t>Checking Shop All tabs links are redirecting correctly</t>
+  </si>
+  <si>
+    <t>1. Hit the URL
+2. Hover on the 1st level Category [ Shop All]
+3. Verify all the displayed links when hovered on Category are properly getting navigated to its respective screen.</t>
   </si>
 </sst>
 </file>
@@ -425,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A98942-7FE4-49AD-84B2-87D3542DBE3B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,33 +499,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -524,7 +543,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
